--- a/biology/Botanique/Cyphokentia/Cyphokentia.xlsx
+++ b/biology/Botanique/Cyphokentia/Cyphokentia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Cyphokentia est un genre de la famille des Arecaceae (Palmiers) comportant des espèces originaires de Nouvelle-Calédonie.
 Synonymes :  
-Dolichokentia Becc.[2]
-Moratia H.E. Moore[2]
+Dolichokentia Becc.
+Moratia H.E. Moore
 </t>
         </is>
       </c>
@@ -514,12 +526,14 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Famille des Arecaceae
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Famille des Arecaceae
 Sous-famille des Arecoideae
 Tribu des Areceae
-Sous-tribu des Clinospermatinae [3]</t>
+Sous-tribu des Clinospermatinae </t>
         </is>
       </c>
     </row>
@@ -547,12 +561,14 @@
           <t>Liste d'espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon BioLib                    (21 avril 2019)[2], Catalogue of Life                                   (21 avril 2019)[4], World Checklist of Selected Plant Families (WCSP)  (21 avril 2019)[5], NCBI  (21 avril 2019)[6] et The Plant List            (21 avril 2019)[7] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon BioLib                    (21 avril 2019), Catalogue of Life                                   (21 avril 2019), World Checklist of Selected Plant Families (WCSP)  (21 avril 2019), NCBI  (21 avril 2019) et The Plant List            (21 avril 2019) :
 Cyphokentia cerifera (H.E.Moore) Pintaud &amp; W.J.Baker (2008)
 Cyphokentia macrostachya Brongn. (1873)
-Selon Tropicos                                           (21 avril 2019)[1] (Attention liste brute contenant possiblement des synonymes) :
+Selon Tropicos                                           (21 avril 2019) (Attention liste brute contenant possiblement des synonymes) :
 Cyphokentia balansae Brongn.
 Cyphokentia billardierei Brongn.
 Cyphokentia bractealis Brongn.
